--- a/cfs_3_0.8.xlsx
+++ b/cfs_3_0.8.xlsx
@@ -2981,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
         <v>3</v>
@@ -3890,13 +3890,13 @@
         <v>71</v>
       </c>
       <c r="V45" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="W45" t="n">
         <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -4778,7 +4778,7 @@
         <v>193061</v>
       </c>
       <c r="N57" t="n">
-        <v>226450.1</v>
+        <v>226450</v>
       </c>
       <c r="O57" t="n">
         <v>226732.8</v>
@@ -4848,7 +4848,7 @@
         <v>193476</v>
       </c>
       <c r="L58" t="n">
-        <v>235974.6</v>
+        <v>235974</v>
       </c>
       <c r="M58" t="n">
         <v>243630</v>
@@ -5030,13 +5030,13 @@
         <v>71</v>
       </c>
       <c r="V60" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="W60" t="n">
         <v>3</v>
       </c>
       <c r="X60" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -5152,7 +5152,7 @@
         <v>184200</v>
       </c>
       <c r="L62" t="n">
-        <v>235974.6</v>
+        <v>235974</v>
       </c>
       <c r="M62" t="n">
         <v>184200</v>
@@ -5371,7 +5371,7 @@
         <v>25.8</v>
       </c>
       <c r="I65" t="n">
-        <v>250509.8</v>
+        <v>250509</v>
       </c>
       <c r="J65" t="n">
         <v>211999</v>
@@ -5395,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="R65" t="n">
         <v>41</v>
@@ -5714,13 +5714,13 @@
         <v>61</v>
       </c>
       <c r="V69" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="W69" t="n">
         <v>3</v>
       </c>
       <c r="X69" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -5872,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="X71" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -6669,7 +6669,7 @@
         <v>173221</v>
       </c>
       <c r="K82" t="n">
-        <v>250990.8</v>
+        <v>250990</v>
       </c>
       <c r="L82" t="n">
         <v>173221</v>
@@ -6702,13 +6702,13 @@
         <v>71</v>
       </c>
       <c r="V82" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="W82" t="n">
         <v>3</v>
       </c>
       <c r="X82" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
